--- a/Front-SIPROE/public/assets/Concentrado_Proyectos.xlsx
+++ b/Front-SIPROE/public/assets/Concentrado_Proyectos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Proyectos\SIPROE\Front-SIPROE\public\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53E790CF-4656-410F-8662-17BCCAD36AC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65C60A46-8B58-4477-B3EA-6344C2770785}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="885" yWindow="2340" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>SECRETARIA EJECUTIVA</t>
   </si>
@@ -51,12 +51,6 @@
   </si>
   <si>
     <t>Dirección Distrital:</t>
-  </si>
-  <si>
-    <t>Fecha: 20/03/2025</t>
-  </si>
-  <si>
-    <t>Hora: 11:28:15 Hrs.</t>
   </si>
   <si>
     <t>DEMARCACIÓN</t>
@@ -622,7 +616,7 @@
   <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -738,33 +732,29 @@
       <c r="C9" s="12"/>
       <c r="D9" s="13"/>
       <c r="E9" s="1"/>
-      <c r="F9" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="F9" s="2"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F10" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:13" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="D11" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="E11" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="F11" s="15" t="s">
         <v>11</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="15" t="s">
-        <v>13</v>
       </c>
       <c r="G11" s="8"/>
     </row>

--- a/Front-SIPROE/public/assets/Concentrado_Proyectos.xlsx
+++ b/Front-SIPROE/public/assets/Concentrado_Proyectos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Proyectos\SIPROE\Front-SIPROE\public\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65C60A46-8B58-4477-B3EA-6344C2770785}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E738AEAC-E50F-4CAC-90C7-62D3C5F8D875}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4365" yWindow="4185" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>SECRETARIA EJECUTIVA</t>
   </si>
@@ -41,12 +41,6 @@
     <t>DIRECCIÓN EJECUTIVA DE PARTICIPACIÓN CIUDADANA Y CAPACITACIÓN</t>
   </si>
   <si>
-    <t>UNIDAD TÉCNICA DE SERVICIOS INFORMÁTICOS</t>
-  </si>
-  <si>
-    <t>CONSULTA DE PRESUPUESTO PARTICIPATIVO 2024</t>
-  </si>
-  <si>
     <t>CONCENTRADO DE PROYECTOS PARTICIPANTES POR UNIDAD TERRITORIAL</t>
   </si>
   <si>
@@ -69,6 +63,9 @@
   </si>
   <si>
     <t>NOMBRE DEL PROYECTO</t>
+  </si>
+  <si>
+    <t>CONSULTA DE PRESUPUESTO PARTICIPATIVO 2025</t>
   </si>
 </sst>
 </file>
@@ -139,7 +136,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -149,12 +146,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -246,24 +237,24 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -616,7 +607,7 @@
   <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="A5" sqref="A5:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -630,14 +621,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
       <c r="G1" s="3"/>
       <c r="I1" s="4"/>
       <c r="J1" s="3"/>
@@ -646,32 +637,30 @@
       <c r="M1" s="3"/>
     </row>
     <row r="2" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
       <c r="G2" s="5"/>
       <c r="I2" s="4"/>
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
     </row>
-    <row r="3" spans="1:13" s="17" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="16"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
+    <row r="3" spans="1:13" s="21" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="19"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="20"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
     </row>
     <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G4" s="5"/>
@@ -680,14 +669,14 @@
       <c r="K4" s="5"/>
     </row>
     <row r="5" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
+      <c r="A5" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
       <c r="I5" s="7"/>
@@ -708,14 +697,14 @@
       <c r="K6" s="6"/>
     </row>
     <row r="7" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
+      <c r="A7" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
     </row>
     <row r="8" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="1"/>
@@ -726,7 +715,7 @@
     </row>
     <row r="9" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="12"/>
@@ -739,22 +728,22 @@
     </row>
     <row r="11" spans="1:13" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="D11" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="E11" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="F11" s="15" t="s">
         <v>9</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" s="15" t="s">
-        <v>11</v>
       </c>
       <c r="G11" s="8"/>
     </row>

--- a/Front-SIPROE/public/assets/Concentrado_Proyectos.xlsx
+++ b/Front-SIPROE/public/assets/Concentrado_Proyectos.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Proyectos\SIPROE\Front-SIPROE\public\assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Proyects\SIPROE\Front-SIPROE\public\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E738AEAC-E50F-4CAC-90C7-62D3C5F8D875}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4365" yWindow="4185" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4368" yWindow="4188" windowWidth="21600" windowHeight="11292"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Hoja1!6:11</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -65,13 +64,13 @@
     <t>NOMBRE DEL PROYECTO</t>
   </si>
   <si>
-    <t>CONSULTA DE PRESUPUESTO PARTICIPATIVO 2025</t>
+    <t>CONSULTA DE PRESUPUESTO PARTICIPATIVO 2026 - 2027</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -237,24 +236,24 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -318,9 +317,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -358,9 +357,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -395,7 +394,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -430,7 +429,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -603,32 +602,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A5" sqref="A5:F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
-    <col min="2" max="2" width="36.85546875" customWidth="1"/>
+    <col min="1" max="1" width="22.5546875" customWidth="1"/>
+    <col min="2" max="2" width="36.88671875" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" customWidth="1"/>
-    <col min="5" max="5" width="29.7109375" customWidth="1"/>
-    <col min="6" max="6" width="82.140625" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" customWidth="1"/>
+    <col min="5" max="5" width="29.6640625" customWidth="1"/>
+    <col min="6" max="6" width="82.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
       <c r="G1" s="3"/>
       <c r="I1" s="4"/>
       <c r="J1" s="3"/>
@@ -636,54 +635,54 @@
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
     </row>
-    <row r="2" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+    <row r="2" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
       <c r="G2" s="5"/>
       <c r="I2" s="4"/>
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
     </row>
-    <row r="3" spans="1:13" s="21" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="19"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="20"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
-    </row>
-    <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" s="17" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="20"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="16"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+    </row>
+    <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G4" s="5"/>
       <c r="I4" s="4"/>
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
     </row>
-    <row r="5" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
+    <row r="5" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
       <c r="I5" s="7"/>
       <c r="J5" s="6"/>
       <c r="K5" s="6"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="15" x14ac:dyDescent="0.3">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -696,24 +695,24 @@
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
     </row>
-    <row r="7" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="18" t="s">
+    <row r="7" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-    </row>
-    <row r="8" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+    </row>
+    <row r="8" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="10"/>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="11" t="s">
         <v>3</v>
       </c>
@@ -723,10 +722,10 @@
       <c r="E9" s="1"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:13" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="s">
         <v>4</v>
       </c>
@@ -765,24 +764,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Front-SIPROE/public/assets/Concentrado_Proyectos.xlsx
+++ b/Front-SIPROE/public/assets/Concentrado_Proyectos.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29725"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Proyects\SIPROE\Front-SIPROE\public\assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Proyectos\SIPROE\SIPROE\Front-SIPROE\public\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDF96088-140F-40DF-BB46-D72CD531280B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4368" yWindow="4188" windowWidth="21600" windowHeight="11292"/>
+    <workbookView xWindow="16080" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -20,19 +21,11 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Hoja1!6:11</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>SECRETARIA EJECUTIVA</t>
   </si>
@@ -65,12 +58,15 @@
   </si>
   <si>
     <t>CONSULTA DE PRESUPUESTO PARTICIPATIVO 2026 - 2027</t>
+  </si>
+  <si>
+    <t>Año</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -191,7 +187,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -236,17 +232,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -317,9 +303,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -357,9 +343,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -394,7 +380,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -429,7 +415,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -602,87 +588,91 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:F5"/>
+      <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.5546875" customWidth="1"/>
-    <col min="2" max="2" width="36.88671875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="2" max="2" width="36.85546875" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" customWidth="1"/>
-    <col min="5" max="5" width="29.6640625" customWidth="1"/>
-    <col min="6" max="6" width="82.109375" customWidth="1"/>
+    <col min="4" max="5" width="18.28515625" customWidth="1"/>
+    <col min="6" max="6" width="29.7109375" customWidth="1"/>
+    <col min="7" max="7" width="82.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="3"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="3"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="3"/>
+      <c r="J1" s="4"/>
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
-    </row>
-    <row r="2" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="19" t="s">
+      <c r="N1" s="3"/>
+    </row>
+    <row r="2" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="5"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="5"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="5"/>
+      <c r="J2" s="4"/>
       <c r="K2" s="5"/>
-    </row>
-    <row r="3" spans="1:13" s="17" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="20"/>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
+      <c r="L2" s="5"/>
+    </row>
+    <row r="3" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="16"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
       <c r="G3" s="16"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-    </row>
-    <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G4" s="5"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+    </row>
+    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H4" s="5"/>
+      <c r="J4" s="4"/>
       <c r="K4" s="5"/>
-    </row>
-    <row r="5" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="21" t="s">
+      <c r="L4" s="5"/>
+    </row>
+    <row r="5" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="6"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
       <c r="H5" s="6"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="7"/>
       <c r="K5" s="6"/>
-    </row>
-    <row r="6" spans="1:13" ht="15" x14ac:dyDescent="0.3">
+      <c r="L5" s="6"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -694,38 +684,42 @@
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
-    </row>
-    <row r="7" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="22" t="s">
+      <c r="L6" s="6"/>
+    </row>
+    <row r="7" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-    </row>
-    <row r="8" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+    </row>
+    <row r="8" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E8" s="1"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>3</v>
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="12"/>
       <c r="D9" s="13"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:13" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E9" s="13"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="1:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>4</v>
       </c>
@@ -739,20 +733,23 @@
         <v>7</v>
       </c>
       <c r="E11" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="15" t="s">
+      <c r="G11" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A5:G5"/>
+    <mergeCell ref="A7:G7"/>
   </mergeCells>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.59055118110236227" bottom="0.59055118110236227" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="70" orientation="landscape" r:id="rId1"/>
@@ -764,24 +761,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
